--- a/results_2023.xlsx
+++ b/results_2023.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mini-project\Desk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DFCFA-57BE-4426-9125-90B312A84BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,117 +27,98 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">college_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUT300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liam Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ava Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECO420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT400</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>college_id</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>STU123</t>
+  </si>
+  <si>
+    <t>HUT300</t>
+  </si>
+  <si>
+    <t>CST307</t>
+  </si>
+  <si>
+    <t>CST304</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>STU234</t>
+  </si>
+  <si>
+    <t>Alex Taylor</t>
+  </si>
+  <si>
+    <t>STU345</t>
+  </si>
+  <si>
+    <t>Emma Stone</t>
+  </si>
+  <si>
+    <t>STU456</t>
+  </si>
+  <si>
+    <t>Liam Brown</t>
+  </si>
+  <si>
+    <t>STU567</t>
+  </si>
+  <si>
+    <t>Ava Wilson</t>
+  </si>
+  <si>
+    <t>STU678</t>
+  </si>
+  <si>
+    <t>Noah Davis</t>
+  </si>
+  <si>
+    <t>STU789</t>
+  </si>
+  <si>
+    <t>ECO420</t>
+  </si>
+  <si>
+    <t>CSE410</t>
+  </si>
+  <si>
+    <t>BIO430</t>
+  </si>
+  <si>
+    <t>MAT400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,7 +137,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -159,112 +145,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -272,12 +231,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -304,7 +263,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -325,7 +284,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -376,7 +335,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -392,34 +351,33 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="13.58"/>
+    <col min="1" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -439,513 +397,508 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="6">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="n">
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="n">
+      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="n">
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6" t="n">
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="n">
+      <c r="E11" s="6">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="n">
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6" t="n">
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="n">
+      <c r="E14" s="6">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6" t="n">
+      <c r="E15" s="6">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" s="6" t="n">
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="n">
+      <c r="E17" s="6">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="n">
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="n">
+      <c r="E19" s="6">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="n">
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="n">
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7" t="n">
+      <c r="E22" s="7">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="n">
+      <c r="E23" s="7">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="7">
         <v>8</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7" t="n">
+      <c r="E25" s="7">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7">
         <v>8</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>80</v>
+      <c r="E26" s="7">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>